--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.066000000000001</v>
+        <v>7.456999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.972</v>
+        <v>-21.794</v>
       </c>
       <c r="B9" t="n">
-        <v>6.28</v>
+        <v>5.518</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.598</v>
+        <v>-10.989</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.142</v>
+        <v>7.052</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.034</v>
+        <v>-21.875</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.294</v>
+        <v>-20.433</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.25</v>
+        <v>7.542</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.2</v>
+        <v>5.781000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.603999999999999</v>
+        <v>6.686999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.82</v>
+        <v>-21.581</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.528</v>
+        <v>-13.237</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.17</v>
+        <v>-12.228</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.872</v>
+        <v>-12.409</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>6.856</v>
+        <v>7.211999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.72</v>
+        <v>-21.842</v>
       </c>
       <c r="B35" t="n">
-        <v>5.242000000000001</v>
+        <v>5.794000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.954</v>
+        <v>-12.266</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.882</v>
+        <v>-12.267</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.296</v>
+        <v>-12.375</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.534</v>
+        <v>-13.283</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.836</v>
+        <v>5.48</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.884</v>
+        <v>6.237</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.3</v>
+        <v>-11.155</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.548</v>
+        <v>5.189000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-14.015</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.182</v>
+        <v>-11.016</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.468</v>
+        <v>5.087000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.696</v>
+        <v>5.398999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.752</v>
+        <v>-21.361</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.214</v>
+        <v>-20.716</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.644</v>
+        <v>-21.068</v>
       </c>
       <c r="B78" t="n">
-        <v>7.7</v>
+        <v>6.555000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>6.48</v>
+        <v>6.889999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-20.978</v>
+        <v>-21.258</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.614</v>
+        <v>-11.541</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.482</v>
+        <v>-21.558</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.204</v>
+        <v>-21.432</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.91</v>
+        <v>-11.25</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.017999999999999</v>
+        <v>5.488</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.82</v>
+        <v>-12.788</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>7.692</v>
+        <v>7.394000000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-13.118</v>
+        <v>-12.377</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
